--- a/1-docs/ErrorReactNative.xlsx
+++ b/1-docs/ErrorReactNative.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Quy trinh cài và sinh ra lỗi</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>nếu mình chạy lệnh đó và chạy lại app kết sinh ra lỗi như sau</t>
+  </si>
+  <si>
+    <t>muốn tìm hiểu:</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Cách kết nối với firebase, cách truy vấn và tương tác với firebase.</t>
   </si>
 </sst>
 </file>
@@ -154,21 +163,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,63 +783,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E113"/>
+  <dimension ref="A2:E158"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="4"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="2"/>
+      <c r="C83" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
@@ -837,11 +847,11 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
@@ -854,7 +864,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -867,6 +877,22 @@
       <c r="B113" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/1-docs/ErrorReactNative.xlsx
+++ b/1-docs/ErrorReactNative.xlsx
@@ -169,6 +169,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -178,7 +179,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,6 +517,61 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="https://scontent.fsgn5-6.fna.fbcdn.net/v/t1.15752-9/58922473_312886239608108_7452529464203804672_n.png?_nc_cat=109&amp;_nc_oc=AQl2P_SoFzGJYpXNVkJL74CFCBCYk0VMDUk8izf1ljYe-nqVMeOmqUVI9JKdjoQ1yEs&amp;_nc_ht=scontent.fsgn5-6.fna&amp;oh=a106bc0ac612595275e35841327175d3&amp;oe=5D343D2F"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="809625" y="30137100"/>
+          <a:ext cx="4114800" cy="7315200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -785,61 +840,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="J166" sqref="J166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="4"/>
+      <c r="C51" s="5"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="5"/>
+      <c r="C83" s="6"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
@@ -847,11 +902,11 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
@@ -884,7 +939,7 @@
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C157" t="s">
@@ -892,7 +947,7 @@
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B158" s="6"/>
+      <c r="B158" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
